--- a/data_generator/data.xlsx
+++ b/data_generator/data.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sowkd\Desktop\Rifty Summoners\Project\DBSync\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws\Part4\TRPG_DAO_NFT\data_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C22205-F4DD-4ACA-B824-431097856067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ECBB6F-896F-4537-8A13-DDD7E0F27F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="4725" windowWidth="21600" windowHeight="8835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="character" sheetId="16" r:id="rId1"/>
+    <sheet name="item" sheetId="16" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">item!$N$1:$N$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,31 +42,180 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATT</t>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽음을 초월한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽주의자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>믿습니까? 믿습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정의의 심판자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연이 그대를 저주하리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신의 낫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속삭이는 칼날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파멸의 운율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘룬의 눈물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심판의 날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침묵의 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미스릴 완드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤의 송곳니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황혼의 바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침묵의 비상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자 로브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연의 장막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환혹의 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/1.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/2.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/3.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/4.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/5.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/6.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/7.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/8.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/9.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/10.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/11.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/12.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/13.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/14.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/15.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/16.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/17.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/18.png</t>
+  </si>
+  <si>
+    <t>https://violet-eligible-junglefowl-936.mypinata.cloud/ipfs/bafybeiduz2r7r7y5dzkxw4kkgzhek2lty3rgoaey5fnvmblb6gsryiu6pe/19.png</t>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wisdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intelligence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charisma</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,14 +257,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,8 +298,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,27 +319,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,15 +654,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B815D017-23F6-406B-9FA2-4AA98DBA09F6}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="121.125" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="70.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,84 +690,862 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2">
+        <v>3</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2">
+        <v>3</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3">
+        <v>80</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>80</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3">
+        <v>65</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3">
+        <v>65</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>140</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
+        <v>3</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>250</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+      <c r="N15" s="7">
+        <v>3</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
+        <v>2</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6">
+        <v>4</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2</v>
+      </c>
+      <c r="N17" s="6">
+        <v>4</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
+        <v>2</v>
+      </c>
+      <c r="N18" s="6">
+        <v>4</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2">
+        <v>4</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
+        <v>3</v>
+      </c>
+      <c r="N19" s="6">
+        <v>4</v>
+      </c>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="2">
+        <v>3</v>
+      </c>
+      <c r="K20" s="2">
+        <v>3</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3</v>
+      </c>
+      <c r="M20" s="2">
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
+        <v>4</v>
+      </c>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="N1:N31" xr:uid="{B815D017-23F6-406B-9FA2-4AA98DBA09F6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O31">
+    <sortCondition ref="N1:N31"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_generator/data.xlsx
+++ b/data_generator/data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws\Part4\TRPG_DAO_NFT\data_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ECBB6F-896F-4537-8A13-DDD7E0F27F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CB3E57-2380-4A11-98AE-66B372A44D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="4725" windowWidth="21600" windowHeight="8835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">item!$N$1:$N$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">item!$M$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,18 +191,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wisdom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>defence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>strength</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +208,10 @@
   </si>
   <si>
     <t>charisma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B815D017-23F6-406B-9FA2-4AA98DBA09F6}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:N20"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,19 +663,18 @@
     <col min="3" max="3" width="121.125" customWidth="1"/>
     <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,35 +691,32 @@
         <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -741,19 +733,18 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2">
-        <v>3</v>
-      </c>
-      <c r="N2" s="6">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -770,19 +761,18 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2">
-        <v>3</v>
-      </c>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="2">
+        <v>3</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -799,19 +789,18 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2">
-        <v>3</v>
-      </c>
-      <c r="N4" s="6">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -830,19 +819,18 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2">
-        <v>3</v>
-      </c>
-      <c r="N5" s="6">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -859,19 +847,18 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
-        <v>3</v>
-      </c>
-      <c r="N6" s="6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -888,19 +875,18 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
+      <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="N7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -917,19 +903,18 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2">
+      <c r="L8" s="2">
         <v>5</v>
       </c>
-      <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -946,19 +931,18 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2">
+      <c r="L9" s="2">
         <v>5</v>
       </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -977,19 +961,18 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2">
+      <c r="L10" s="2">
         <v>5</v>
       </c>
-      <c r="N10" s="6">
-        <v>1</v>
-      </c>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1006,19 +989,18 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2">
+      <c r="L11" s="2">
         <v>5</v>
       </c>
-      <c r="N11" s="6">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1030,24 +1012,21 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3">
-        <v>140</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2">
-        <v>3</v>
-      </c>
-      <c r="N12" s="7">
+      <c r="L12" s="2">
+        <v>3</v>
+      </c>
+      <c r="M12" s="7">
         <v>2</v>
       </c>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1059,24 +1038,21 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3">
-        <v>20</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3</v>
-      </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="2">
+        <v>3</v>
+      </c>
+      <c r="M13" s="7">
+        <v>3</v>
+      </c>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1088,24 +1064,21 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3">
-        <v>250</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2">
+      <c r="L14" s="2">
         <v>5</v>
       </c>
-      <c r="N14" s="7">
+      <c r="M14" s="7">
         <v>2</v>
       </c>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1117,24 +1090,21 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3">
-        <v>50</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2">
+      <c r="L15" s="2">
         <v>5</v>
       </c>
-      <c r="N15" s="7">
-        <v>3</v>
-      </c>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="7">
+        <v>3</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1148,24 +1118,23 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2">
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
         <v>2</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="N16" s="6">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
         <v>4</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1179,26 +1148,25 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
+      <c r="H17" s="3">
         <v>2</v>
       </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2"/>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
       <c r="L17" s="2">
-        <v>1</v>
-      </c>
-      <c r="M17" s="2">
         <v>2</v>
       </c>
-      <c r="N17" s="6">
+      <c r="M17" s="6">
         <v>4</v>
       </c>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1210,30 +1178,29 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
         <v>2</v>
       </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2">
-        <v>2</v>
-      </c>
-      <c r="N18" s="6">
+      <c r="M18" s="6">
         <v>4</v>
       </c>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1245,26 +1212,25 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
+      <c r="F19" s="3">
         <v>2</v>
       </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
         <v>4</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2">
-        <v>3</v>
-      </c>
-      <c r="N19" s="6">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
+        <v>3</v>
+      </c>
+      <c r="M19" s="6">
         <v>4</v>
       </c>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1276,14 +1242,16 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
       <c r="G20" s="3">
         <v>3</v>
       </c>
       <c r="H20" s="3">
         <v>3</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>3</v>
       </c>
       <c r="J20" s="2">
@@ -1293,17 +1261,14 @@
         <v>3</v>
       </c>
       <c r="L20" s="2">
-        <v>3</v>
-      </c>
-      <c r="M20" s="2">
         <v>5</v>
       </c>
-      <c r="N20" s="6">
+      <c r="M20" s="6">
         <v>4</v>
       </c>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1312,15 +1277,14 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1329,15 +1293,14 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1346,15 +1309,14 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1363,15 +1325,14 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1379,16 +1340,15 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
       <c r="C26" s="3"/>
@@ -1397,15 +1357,14 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1414,15 +1373,14 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1431,15 +1389,14 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1448,15 +1405,14 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1465,15 +1421,14 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1482,15 +1437,14 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1499,15 +1453,14 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1516,15 +1469,14 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1533,18 +1485,17 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="N1:N31" xr:uid="{B815D017-23F6-406B-9FA2-4AA98DBA09F6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O31">
-    <sortCondition ref="N1:N31"/>
+  <autoFilter ref="M1:M31" xr:uid="{B815D017-23F6-406B-9FA2-4AA98DBA09F6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N31">
+    <sortCondition ref="M1:M31"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_generator/data.xlsx
+++ b/data_generator/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws\Part4\TRPG_DAO_NFT\data_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CB3E57-2380-4A11-98AE-66B372A44D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4351983E-F074-4FFB-A358-B02D73C9E0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="item" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">item!$M$1:$M$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">item!$N$1:$N$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,10 @@
   </si>
   <si>
     <t>rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,31 +654,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B815D017-23F6-406B-9FA2-4AA98DBA09F6}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="121.125" customWidth="1"/>
-    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="121.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,576 +686,595 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>50</v>
       </c>
-      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2">
-        <v>3</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2">
+        <v>3</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>50</v>
       </c>
-      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>3</v>
-      </c>
-      <c r="M3" s="6">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2">
+        <v>3</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>40</v>
       </c>
-      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <v>3</v>
-      </c>
-      <c r="M4" s="6">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>20</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>40</v>
       </c>
-      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2">
-        <v>3</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>60</v>
       </c>
-      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2">
-        <v>3</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>80</v>
       </c>
-      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>80</v>
       </c>
-      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
         <v>5</v>
       </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>65</v>
       </c>
-      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
         <v>5</v>
       </c>
-      <c r="M9" s="6">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>35</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>65</v>
       </c>
-      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
         <v>5</v>
       </c>
-      <c r="M10" s="6">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>90</v>
       </c>
-      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
         <v>5</v>
       </c>
-      <c r="M11" s="6">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <v>3</v>
-      </c>
-      <c r="M12" s="7">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
+        <v>3</v>
+      </c>
+      <c r="N12" s="7">
         <v>2</v>
       </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <v>3</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
         <v>5</v>
       </c>
-      <c r="M14" s="7">
+      <c r="N14" s="7">
         <v>2</v>
       </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
         <v>5</v>
       </c>
-      <c r="M15" s="7">
-        <v>3</v>
-      </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="7">
+        <v>3</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
         <v>2</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="6">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6">
         <v>4</v>
       </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
         <v>2</v>
       </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2"/>
       <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
         <v>2</v>
       </c>
-      <c r="M17" s="6">
+      <c r="N17" s="6">
         <v>4</v>
       </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
         <v>2</v>
       </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2"/>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="2">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
         <v>2</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="6">
         <v>4</v>
       </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2">
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2">
         <v>4</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2">
-        <v>3</v>
-      </c>
-      <c r="M19" s="6">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
+        <v>3</v>
+      </c>
+      <c r="N19" s="6">
         <v>4</v>
       </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3">
-        <v>3</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3">
         <v>3</v>
       </c>
       <c r="H20" s="3">
         <v>3</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="3">
         <v>3</v>
       </c>
       <c r="J20" s="2">
@@ -1261,14 +1284,17 @@
         <v>3</v>
       </c>
       <c r="L20" s="2">
+        <v>3</v>
+      </c>
+      <c r="M20" s="2">
         <v>5</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="6">
         <v>4</v>
       </c>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1277,14 +1303,15 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1293,14 +1320,15 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1309,14 +1337,15 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1325,14 +1354,15 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1340,31 +1370,33 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1373,14 +1405,15 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1389,14 +1422,15 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1405,14 +1439,15 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1421,14 +1456,15 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="2"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1437,14 +1473,15 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1453,14 +1490,15 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1469,14 +1507,15 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="2"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1485,19 +1524,21 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="2"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="M1:M31" xr:uid="{B815D017-23F6-406B-9FA2-4AA98DBA09F6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N31">
-    <sortCondition ref="M1:M31"/>
+  <autoFilter ref="N1:N31" xr:uid="{B815D017-23F6-406B-9FA2-4AA98DBA09F6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O31">
+    <sortCondition ref="N1:N31"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>